--- a/bank/pout-2022-09-01.xlsx
+++ b/bank/pout-2022-09-01.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiding/Sites/weidroot/weidroot_2017-01-06/app/github/wdingsoft/whingding/bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771C2670-B6E4-D740-82A9-D85836660B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DAB95906-EED8-E041-9570-FF5C61E2414F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="2840" windowWidth="23540" windowHeight="12880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="2180" windowWidth="23540" windowHeight="12880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wd-op-log" sheetId="6" r:id="rId1"/>
+    <sheet name="Bank_Monthly" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="98">
   <si>
     <t>22-06-26</t>
   </si>
@@ -101,9 +103,6 @@
     <t>22-04-22</t>
   </si>
   <si>
-    <t>taxi didi</t>
-  </si>
-  <si>
     <t>icbc</t>
   </si>
   <si>
@@ -194,19 +193,139 @@
     <t>Xinji-Quaritine+7+7(train,hotel,taxi,acidtest)</t>
   </si>
   <si>
-    <t>JX-quote-2022:$49999.0</t>
-  </si>
-  <si>
-    <t>22-08-29</t>
-  </si>
-  <si>
     <t>taxi-airport, food-airport</t>
   </si>
   <si>
-    <t>chinese herb (LongZeXiongDanx40,GanMao)</t>
-  </si>
-  <si>
-    <t>init:$6782.74</t>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>JX-北京农商</t>
+  </si>
+  <si>
+    <t>JX-中国銀行</t>
+  </si>
+  <si>
+    <t>JX-北京銀行</t>
+  </si>
+  <si>
+    <t>JX-zhaoshang</t>
+  </si>
+  <si>
+    <t>JX-icbc</t>
+  </si>
+  <si>
+    <t>DW-zhongxin</t>
+  </si>
+  <si>
+    <t>DW-zhaoshang</t>
+  </si>
+  <si>
+    <t>DW-icbc</t>
+  </si>
+  <si>
+    <t>DW-yc</t>
+  </si>
+  <si>
+    <t>22-08-27</t>
+  </si>
+  <si>
+    <t>22-08-11</t>
+  </si>
+  <si>
+    <t>22-07-30</t>
+  </si>
+  <si>
+    <t>m7</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>m8</t>
+  </si>
+  <si>
+    <t>22-08-30</t>
+  </si>
+  <si>
+    <t>三街房超市发</t>
+  </si>
+  <si>
+    <t>八宝山殡仪馆</t>
+  </si>
+  <si>
+    <t>燕京公证</t>
+  </si>
+  <si>
+    <t>美团</t>
+  </si>
+  <si>
+    <t>北京莱佛士医院</t>
+  </si>
+  <si>
+    <t>转帐</t>
+  </si>
+  <si>
+    <t>生活缴费,</t>
+  </si>
+  <si>
+    <t>Cathay-Pacific-Insurance</t>
+  </si>
+  <si>
+    <t>联通</t>
+  </si>
+  <si>
+    <t>惠民果蔬</t>
+  </si>
+  <si>
+    <t>二维码收付款</t>
+  </si>
+  <si>
+    <t>长安公证</t>
+  </si>
+  <si>
+    <t>航天中心医院</t>
+  </si>
+  <si>
+    <t>海淀公安局(Jx-passport)</t>
+  </si>
+  <si>
+    <t>轨道交通票</t>
+  </si>
+  <si>
+    <t>玉泉路超市发</t>
+  </si>
+  <si>
+    <t>others(-3860.69)</t>
+  </si>
+  <si>
+    <t>二维码收付款:chinese herb (LongZeXiongDanx40,GanMao)</t>
+  </si>
+  <si>
+    <t>chinese herb (LongZeXiongDanx40,GanMao)-1598.7</t>
+  </si>
+  <si>
+    <t>chinese herb (LongZeXiongDanx40,GanMao)-354</t>
+  </si>
+  <si>
+    <t>others(-12202.09)</t>
+  </si>
+  <si>
+    <t>JX-quote-2022:$49999.0=-343993.12</t>
+  </si>
+  <si>
+    <t>商户梁卫林(果蔬)</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>taxi didi(NanYuan)</t>
+  </si>
+  <si>
+    <t>JX-quote-2023:$49999.0=-343993.12</t>
+  </si>
+  <si>
+    <t>23-08-25</t>
   </si>
 </sst>
 </file>
@@ -255,7 +374,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,8 +411,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -353,57 +484,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -418,9 +505,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -450,24 +534,57 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -685,532 +802,1121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED1393D-93E0-6547-BE37-37C21B49335F}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="40.1640625" customWidth="1"/>
+    <col min="5" max="5" width="21" style="7" customWidth="1"/>
+    <col min="6" max="6" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D1" s="13" t="s">
+    <row r="1" spans="1:7" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="17">
+        <v>3275177.25</v>
+      </c>
+      <c r="E2" s="11">
+        <v>6782.74</v>
+      </c>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" s="43" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E3" s="44"/>
+    </row>
+    <row r="4" spans="1:7" s="35" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="36">
+        <f>D2+SUM(D5:D15)+D16</f>
+        <v>2900408.7199999997</v>
+      </c>
+      <c r="E4" s="37">
+        <f>E2+SUM(E5:E14)+E16</f>
+        <v>43884.74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41">
+        <v>-343993.12</v>
+      </c>
+      <c r="E5" s="7">
+        <v>49999</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="39">
+        <v>-6.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="38"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="42"/>
+    </row>
+    <row r="7" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="38"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="42"/>
+    </row>
+    <row r="8" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="38"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="42"/>
+    </row>
+    <row r="9" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="38"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="42"/>
+    </row>
+    <row r="10" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="38"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="42"/>
+    </row>
+    <row r="11" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="38"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="42"/>
+    </row>
+    <row r="12" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="38"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="42"/>
+    </row>
+    <row r="13" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="38"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="42"/>
+    </row>
+    <row r="14" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="39">
+        <v>-6.98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="43" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="47"/>
+    </row>
+    <row r="16" spans="1:7" s="19" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="20">
+        <f>SUM(D17:D366)</f>
+        <v>-30775.41</v>
+      </c>
+      <c r="E16" s="18">
+        <f>SUM(E17:E103)</f>
+        <v>-12897</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C17" s="1"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="7">
+        <v>-249</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="16" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18">
-        <v>3275177.25</v>
-      </c>
-      <c r="E2" s="12">
-        <v>6782.74</v>
-      </c>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:10" s="9" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="21">
-        <f>D2+D4</f>
-        <v>2913482.39</v>
-      </c>
-      <c r="E3" s="22">
-        <f>E2+E4</f>
-        <v>43884.74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="25" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="26">
-        <f>SUM(D5:D354)</f>
-        <v>-361694.86</v>
-      </c>
-      <c r="E4" s="20">
-        <f>SUM(E5:E91)</f>
-        <v>37102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C5" s="1"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C6" s="1"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C7" s="1"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7">
-        <v>-249</v>
-      </c>
-      <c r="F8" s="2" t="s">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="7">
+        <v>-435</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C20" s="1"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="7">
+        <v>-700</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="7">
-        <v>-435</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C10" s="1"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="7">
-        <v>-700</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="7">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C21" s="1"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="7">
         <v>-3000</v>
       </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7">
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C22" s="1"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="7">
         <v>-1000</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C13" s="1"/>
-      <c r="D13" s="5">
+      <c r="F22" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C23" s="1"/>
+      <c r="D23" s="5">
         <v>-3000</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E23" s="7">
         <v>0</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="2" t="s">
+      <c r="F23" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="5">
+      <c r="C24" s="1"/>
+      <c r="D24" s="5">
         <v>-858.24</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="2" t="s">
+      <c r="F24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="5">
+      <c r="C25" s="1"/>
+      <c r="D25" s="5">
         <v>-98</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="2" t="s">
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="2" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="5">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="5">
-        <v>-100</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="2" t="s">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="5">
+      <c r="C27" s="1"/>
+      <c r="D27" s="5">
         <v>-58</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F27" t="s">
         <v>13</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-1200</v>
-      </c>
-      <c r="F18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-140</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-296</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="5">
-        <v>-380</v>
-      </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-872</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="5">
-        <v>-1536</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="5">
-        <v>-380</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="5">
-        <v>-40</v>
-      </c>
-      <c r="F26" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="5">
-        <v>-190</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B28" s="4" t="s">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="5">
+        <v>-1200</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="5">
+        <v>-140</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="5">
         <v>0</v>
       </c>
-      <c r="D28" s="5">
-        <v>-100</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="5"/>
-      <c r="F29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="5"/>
       <c r="F30" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
       <c r="D31" s="5">
-        <v>-968</v>
+        <v>-296</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B32" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B32" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D32" s="5">
-        <v>-344</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="2"/>
+        <v>-380</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="1"/>
+        <v>26</v>
+      </c>
       <c r="D33" s="5">
-        <v>-772</v>
+        <v>-872</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="1"/>
+        <v>26</v>
+      </c>
       <c r="D34" s="5">
-        <v>-2746</v>
+        <v>-1536</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="1"/>
+      <c r="B35" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D35" s="5">
-        <v>-223.5</v>
+        <v>-380</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C36" s="1"/>
-      <c r="D36" s="5"/>
+      <c r="B36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="5">
+        <v>-40</v>
+      </c>
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C37" s="1"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="8"/>
+      <c r="B37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="5">
+        <v>-190</v>
+      </c>
       <c r="F37" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="1"/>
+      <c r="B38" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="D38" s="5">
-        <f>G38*E38</f>
-        <v>-343993.12</v>
-      </c>
-      <c r="E38" s="7">
-        <v>49999</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38">
-        <v>-6.88</v>
-      </c>
+        <v>-100</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="2"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
-        <v>32</v>
+      <c r="B39" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="7">
+      <c r="F39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="5"/>
+      <c r="F40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="5">
+        <v>-968</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="5">
+        <v>-344</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="5">
+        <v>-772</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="5">
+        <v>-2746</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="5">
+        <v>-223.5</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B46" s="4"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="5"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B47" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="1">
+        <v>-1010</v>
+      </c>
+      <c r="F47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B48" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="1">
+        <v>-683</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B49" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="1">
+        <v>-544.70000000000005</v>
+      </c>
+      <c r="F49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B50" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="1">
+        <v>-459.99</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B51" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="1">
+        <v>-416</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B52" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="1">
+        <v>-268</v>
+      </c>
+      <c r="F52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B53" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="1">
+        <v>-259.3</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B54" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="1">
+        <v>-120</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B55" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" s="1">
+        <v>-34</v>
+      </c>
+      <c r="F55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B56" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="1">
+        <v>-26.8</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D57" s="5">
+        <v>-38.9</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D58" s="33"/>
+      <c r="F58" s="32"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B59" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="1">
+        <v>-3591.7</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B60" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="1">
+        <v>-2009.34</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B61" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="1">
+        <v>-1601</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B62" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" s="1">
+        <v>-950</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B63" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="1">
+        <v>-898</v>
+      </c>
+      <c r="F63" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B64" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" s="1">
+        <v>-546.95000000000005</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B65" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="1">
+        <v>-474.7</v>
+      </c>
+      <c r="F65" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B66" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" s="1">
+        <v>-420</v>
+      </c>
+      <c r="F66" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B67" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="1">
+        <v>-350</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B68" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" s="1">
+        <v>-344.8</v>
+      </c>
+      <c r="F68" s="31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B69" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69" s="5">
+        <v>-1015.6</v>
+      </c>
+      <c r="F69" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C70" s="1"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="7">
         <v>-5000</v>
       </c>
-      <c r="F39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E40" s="7">
+      <c r="F71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="7">
         <v>-2500</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="2" t="s">
+      <c r="F72" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B73" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="F73" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B74" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="F74" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B75" s="2"/>
+      <c r="D75" s="5"/>
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B76" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" s="5">
+        <v>-410.89</v>
+      </c>
+      <c r="E76" s="7">
+        <v>-13</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBE6AC8-509B-A643-BB19-E41D6E7661ED}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="26">
+        <v>44805</v>
+      </c>
+      <c r="C1" s="27">
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="21" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="22">
+        <f>SUM(B4:B285)</f>
+        <v>2899401.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1854075.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1">
+        <v>133463.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="5">
-        <v>-3000</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="B7" s="1">
+        <v>1478.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1">
+        <v>183.87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="5">
-        <v>-400</v>
-      </c>
-      <c r="E42" s="7">
-        <v>-13</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>56</v>
+      <c r="B9" s="1">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="24"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="1">
+        <v>59544.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="1">
+        <v>614654.69999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="1">
+        <v>235000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDE1DEB-AAEB-B74D-9157-6AA46250B0A3}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="3" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B1" s="1">
+        <v>1010</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3591.7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2" s="1">
+        <v>683</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2009.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B3" s="1">
+        <v>544.70000000000005</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" s="1">
+        <v>459.99</v>
+      </c>
+      <c r="C4" s="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" s="1">
+        <v>416</v>
+      </c>
+      <c r="C5" s="1">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6" s="1">
+        <v>268</v>
+      </c>
+      <c r="C6" s="1">
+        <v>546.95000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" s="1">
+        <v>259.3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>474.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B8" s="1">
+        <v>120</v>
+      </c>
+      <c r="C8" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B9" s="1">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B10" s="1">
+        <v>26.8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>344.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="29">
+        <f>SUM(B1:B10)</f>
+        <v>3821.79</v>
+      </c>
+      <c r="C14" s="29">
+        <f>SUM(C1:C10)</f>
+        <v>11186.490000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15" s="1">
+        <v>3860.69</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12202.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B15-B14</f>
+        <v>38.900000000000091</v>
+      </c>
+      <c r="C16" s="1">
+        <f>C15-C14</f>
+        <v>1015.5999999999985</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/bank/pout-2022-09-01.xlsx
+++ b/bank/pout-2022-09-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiding/Sites/weidroot/weidroot_2017-01-06/app/github/wdingsoft/whingding/bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DAB95906-EED8-E041-9570-FF5C61E2414F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{13E63A80-A942-1F45-A3A0-B4933FFD2500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="2180" windowWidth="23540" windowHeight="12880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="620" windowWidth="23540" windowHeight="12880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wd-op-log" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="97">
   <si>
     <t>22-06-26</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>mobile charge</t>
-  </si>
-  <si>
-    <t>wd-icbc</t>
   </si>
   <si>
     <t>22-08-25</t>
@@ -494,9 +491,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -560,8 +554,6 @@
     <xf numFmtId="43" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -585,6 +577,13 @@
     <xf numFmtId="43" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="6" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -802,871 +801,1181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED1393D-93E0-6547-BE37-37C21B49335F}">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="6" customWidth="1"/>
-    <col min="5" max="5" width="21" style="7" customWidth="1"/>
-    <col min="6" max="6" width="50" customWidth="1"/>
+    <col min="3" max="3" width="21" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21" style="4" customWidth="1"/>
+    <col min="5" max="5" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D1" s="12" t="s">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="C2" s="14">
+        <v>3275177.25</v>
+      </c>
+      <c r="D2" s="8">
+        <v>6782.74</v>
+      </c>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" s="38" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="39"/>
+    </row>
+    <row r="4" spans="1:6" s="30" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="31">
+        <f>C2+SUM(C5:C15)+C16</f>
+        <v>2900408.7199999997</v>
+      </c>
+      <c r="D4" s="32">
+        <f>D2+SUM(D5:D14)+D16</f>
+        <v>43884.74</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="36">
+        <v>-343993.12</v>
+      </c>
+      <c r="D5" s="4">
+        <v>49999</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="34">
+        <v>-6.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="33"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="33"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="37"/>
+    </row>
+    <row r="8" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="33"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="37"/>
+    </row>
+    <row r="9" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="33"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="37"/>
+    </row>
+    <row r="10" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="33"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="37"/>
+    </row>
+    <row r="11" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="33"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="37"/>
+    </row>
+    <row r="12" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="33"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="37"/>
+    </row>
+    <row r="13" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="33"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="37"/>
+    </row>
+    <row r="14" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="36">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="34">
+        <v>-6.98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="38" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="42"/>
+    </row>
+    <row r="16" spans="1:6" s="16" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="17">
+        <f>SUM(C17:C366)</f>
+        <v>-30775.41</v>
+      </c>
+      <c r="D16" s="15">
+        <f>SUM(D17:D103)</f>
+        <v>-12897</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="34"/>
+      <c r="C17" s="36"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="4">
+        <v>-249</v>
+      </c>
+      <c r="E18" s="43" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17">
-        <v>3275177.25</v>
-      </c>
-      <c r="E2" s="11">
-        <v>6782.74</v>
-      </c>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" s="43" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E3" s="44"/>
-    </row>
-    <row r="4" spans="1:7" s="35" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="36">
-        <f>D2+SUM(D5:D15)+D16</f>
-        <v>2900408.7199999997</v>
-      </c>
-      <c r="E4" s="37">
-        <f>E2+SUM(E5:E14)+E16</f>
-        <v>43884.74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="38" t="s">
+      <c r="F18" s="34"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="36"/>
+      <c r="D19" s="4">
+        <v>-435</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="34"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="34"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="4">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="34"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="34"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="4">
+        <v>-3000</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="34"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="34"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="4">
+        <v>-1000</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="34"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="34"/>
+      <c r="C23" s="36">
+        <v>-3000</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="34"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="36">
+        <v>-858.24</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="36">
+        <v>-98</v>
+      </c>
+      <c r="E25" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41">
-        <v>-343993.12</v>
-      </c>
-      <c r="E5" s="7">
-        <v>49999</v>
-      </c>
-      <c r="F5" s="42" t="s">
+      <c r="F25" s="43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="36">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="43"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="36">
+        <v>-58</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="36">
+        <v>-1200</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="36">
+        <v>-140</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B30" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="36">
+        <v>0</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B31" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="36">
+        <v>-296</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B32" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="36">
+        <v>-380</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B33" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="36">
+        <v>-872</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="36">
+        <v>-1536</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B35" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="36">
+        <v>-380</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B36" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="36">
+        <v>-40</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B37" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="36">
+        <v>-190</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B38" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="36">
+        <v>-100</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="43"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B39" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="36"/>
+      <c r="E39" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B40" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="36"/>
+      <c r="E40" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B41" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="36">
+        <v>-968</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="43"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B42" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="36">
+        <v>-344</v>
+      </c>
+      <c r="E42" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="43"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B43" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="36">
+        <v>-772</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="43"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B44" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="36">
+        <v>-2746</v>
+      </c>
+      <c r="E44" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="43"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B45" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="36">
+        <v>-223.5</v>
+      </c>
+      <c r="E45" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B46" s="45"/>
+      <c r="C46" s="36"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="34"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B47" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="35">
+        <v>-1010</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" s="34"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B48" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="35">
+        <v>-683</v>
+      </c>
+      <c r="E48" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="34"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B49" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="35">
+        <v>-544.70000000000005</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="34"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B50" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="35">
+        <v>-459.99</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" s="34"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B51" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="35">
+        <v>-416</v>
+      </c>
+      <c r="E51" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" s="34"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B52" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="35">
+        <v>-268</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F52" s="34"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B53" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="35">
+        <v>-259.3</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F53" s="34"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B54" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="35">
+        <v>-120</v>
+      </c>
+      <c r="E54" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" s="34"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B55" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="35">
+        <v>-34</v>
+      </c>
+      <c r="E55" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F55" s="34"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B56" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="35">
+        <v>-26.8</v>
+      </c>
+      <c r="E56" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="F56" s="34"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B57" s="34"/>
+      <c r="C57" s="36">
+        <v>-38.9</v>
+      </c>
+      <c r="E57" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F57" s="34"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B58" s="34"/>
+      <c r="C58" s="36"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="34"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B59" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="35">
+        <v>-3591.7</v>
+      </c>
+      <c r="E59" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F59" s="34"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B60" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="35">
+        <v>-2009.34</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F60" s="34"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B61" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="35">
+        <v>-1601</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F61" s="34"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B62" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="35">
+        <v>-950</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" s="34"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B63" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="35">
+        <v>-898</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63" s="34"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B64" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="35">
+        <v>-546.95000000000005</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F64" s="34"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B65" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="35">
+        <v>-474.7</v>
+      </c>
+      <c r="E65" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="39">
-        <v>-6.88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="38"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="42"/>
-    </row>
-    <row r="7" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="38"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="42"/>
-    </row>
-    <row r="8" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="38"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="42"/>
-    </row>
-    <row r="9" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="38"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="42"/>
-    </row>
-    <row r="10" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="38"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="42"/>
-    </row>
-    <row r="11" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="38"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="42"/>
-    </row>
-    <row r="12" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="38"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="42"/>
-    </row>
-    <row r="13" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="38"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="42"/>
-    </row>
-    <row r="14" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="39">
-        <v>-6.98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="43" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="47"/>
-    </row>
-    <row r="16" spans="1:7" s="19" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="20">
-        <f>SUM(D17:D366)</f>
-        <v>-30775.41</v>
-      </c>
-      <c r="E16" s="18">
-        <f>SUM(E17:E103)</f>
-        <v>-12897</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C17" s="1"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
+      <c r="F65" s="34"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B66" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="35">
+        <v>-420</v>
+      </c>
+      <c r="E66" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F66" s="34"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B67" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="35">
+        <v>-350</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F67" s="34"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B68" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="35">
+        <v>-344.8</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F68" s="34"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B69" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="36">
+        <v>-1015.6</v>
+      </c>
+      <c r="E69" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F69" s="34"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B70" s="34"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="34"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B71" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="36"/>
+      <c r="D71" s="4">
+        <v>-5000</v>
+      </c>
+      <c r="E71" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7">
-        <v>-249</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="7">
-        <v>-435</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C20" s="1"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7">
-        <v>-700</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="F71" s="34"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B72" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="47"/>
+      <c r="D72" s="4">
+        <v>-2500</v>
+      </c>
+      <c r="E72" s="43" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C21" s="1"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7">
-        <v>-3000</v>
-      </c>
-      <c r="F21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C22" s="1"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="7">
-        <v>-1000</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C23" s="1"/>
-      <c r="D23" s="5">
-        <v>-3000</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="F72" s="34"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B73" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="36"/>
+      <c r="E73" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="F73" s="34"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B74" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="36"/>
+      <c r="E74" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="F74" s="34"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B75" s="43"/>
+      <c r="C75" s="36"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="34"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B76" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" s="36">
+        <v>-410.89</v>
+      </c>
+      <c r="D76" s="4">
+        <v>-13</v>
+      </c>
+      <c r="E76" s="43" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="5">
-        <v>-858.24</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="5">
-        <v>-98</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="5">
-        <v>-100</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="5">
-        <v>-58</v>
-      </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="5">
-        <v>-1200</v>
-      </c>
-      <c r="F28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="5">
-        <v>-140</v>
-      </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="5">
-        <v>-296</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="5">
-        <v>-380</v>
-      </c>
-      <c r="F32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="5">
-        <v>-872</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="5">
-        <v>-1536</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="5">
-        <v>-380</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="5">
-        <v>-40</v>
-      </c>
-      <c r="F36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="5">
-        <v>-190</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="5">
-        <v>-100</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="5"/>
-      <c r="F39" t="s">
-        <v>2</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="5"/>
-      <c r="F40" t="s">
-        <v>1</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="5">
-        <v>-968</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="5">
-        <v>-344</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="5">
-        <v>-772</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B44" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="5">
-        <v>-2746</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="5">
-        <v>-223.5</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B46" s="4"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="5"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B47" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" s="1">
-        <v>-1010</v>
-      </c>
-      <c r="F47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B48" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" s="1">
-        <v>-683</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D49" s="1">
-        <v>-544.70000000000005</v>
-      </c>
-      <c r="F49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50" s="1">
-        <v>-459.99</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B51" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D51" s="1">
-        <v>-416</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B52" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="1">
-        <v>-268</v>
-      </c>
-      <c r="F52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B53" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D53" s="1">
-        <v>-259.3</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B54" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D54" s="1">
-        <v>-120</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D55" s="1">
-        <v>-34</v>
-      </c>
-      <c r="F55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B56" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D56" s="1">
-        <v>-26.8</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D57" s="5">
-        <v>-38.9</v>
-      </c>
-      <c r="F57" s="32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D58" s="33"/>
-      <c r="F58" s="32"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B59" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59" s="1">
-        <v>-3591.7</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B60" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D60" s="1">
-        <v>-2009.34</v>
-      </c>
-      <c r="F60" s="31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B61" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D61" s="1">
-        <v>-1601</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B62" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D62" s="1">
-        <v>-950</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B63" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D63" s="1">
-        <v>-898</v>
-      </c>
-      <c r="F63" s="31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B64" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D64" s="1">
-        <v>-546.95000000000005</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B65" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D65" s="1">
-        <v>-474.7</v>
-      </c>
-      <c r="F65" s="31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B66" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D66" s="1">
-        <v>-420</v>
-      </c>
-      <c r="F66" s="31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B67" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D67" s="1">
-        <v>-350</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B68" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D68" s="1">
-        <v>-344.8</v>
-      </c>
-      <c r="F68" s="31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B69" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D69" s="5">
-        <v>-1015.6</v>
-      </c>
-      <c r="F69" s="31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C70" s="1"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B71" t="s">
-        <v>31</v>
-      </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="7">
-        <v>-5000</v>
-      </c>
-      <c r="F71" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B72" t="s">
-        <v>31</v>
-      </c>
-      <c r="E72" s="7">
-        <v>-2500</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B73" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D73" s="5"/>
-      <c r="F73" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B74" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D74" s="5"/>
-      <c r="F74" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B75" s="2"/>
-      <c r="D75" s="5"/>
-      <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B76" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D76" s="5">
-        <v>-410.89</v>
-      </c>
-      <c r="E76" s="7">
-        <v>-13</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="F76" s="34"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B77" s="34"/>
+      <c r="C77" s="47"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B78" s="34"/>
+      <c r="C78" s="47"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B79" s="34"/>
+      <c r="C79" s="47"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B80" s="34"/>
+      <c r="C80" s="47"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B81" s="34"/>
+      <c r="C81" s="47"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B82" s="34"/>
+      <c r="C82" s="47"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B83" s="34"/>
+      <c r="C83" s="47"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B84" s="34"/>
+      <c r="C84" s="47"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B85" s="34"/>
+      <c r="C85" s="47"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B86" s="34"/>
+      <c r="C86" s="47"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B87" s="34"/>
+      <c r="C87" s="47"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B88" s="34"/>
+      <c r="C88" s="47"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B89" s="34"/>
+      <c r="C89" s="47"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B90" s="34"/>
+      <c r="C90" s="47"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B91" s="34"/>
+      <c r="C91" s="47"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B92" s="34"/>
+      <c r="C92" s="47"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B93" s="34"/>
+      <c r="C93" s="47"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="34"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B94" s="34"/>
+      <c r="C94" s="47"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="34"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B95" s="34"/>
+      <c r="C95" s="47"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B96" s="34"/>
+      <c r="C96" s="47"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B97" s="34"/>
+      <c r="C97" s="47"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="34"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B98" s="34"/>
+      <c r="C98" s="47"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B99" s="34"/>
+      <c r="C99" s="47"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="34"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B100" s="34"/>
+      <c r="C100" s="47"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="34"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B101" s="34"/>
+      <c r="C101" s="47"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="34"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B102" s="34"/>
+      <c r="C102" s="47"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="34"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B103" s="34"/>
+      <c r="C103" s="47"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="34"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B104" s="34"/>
+      <c r="C104" s="47"/>
+      <c r="E104" s="34"/>
+      <c r="F104" s="34"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B105" s="34"/>
+      <c r="C105" s="47"/>
+      <c r="E105" s="34"/>
+      <c r="F105" s="34"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B106" s="34"/>
+      <c r="C106" s="47"/>
+      <c r="E106" s="34"/>
+      <c r="F106" s="34"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B107" s="34"/>
+      <c r="C107" s="47"/>
+      <c r="E107" s="34"/>
+      <c r="F107" s="34"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B108" s="34"/>
+      <c r="C108" s="47"/>
+      <c r="E108" s="34"/>
+      <c r="F108" s="34"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B109" s="34"/>
+      <c r="C109" s="47"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="34"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B110" s="34"/>
+      <c r="C110" s="47"/>
+      <c r="E110" s="34"/>
+      <c r="F110" s="34"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B111" s="34"/>
+      <c r="C111" s="47"/>
+      <c r="E111" s="34"/>
+      <c r="F111" s="34"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B112" s="34"/>
+      <c r="C112" s="47"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="34"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B113" s="34"/>
+      <c r="C113" s="47"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="34"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B114" s="34"/>
+      <c r="C114" s="47"/>
+      <c r="E114" s="34"/>
+      <c r="F114" s="34"/>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B115" s="34"/>
+      <c r="C115" s="47"/>
+      <c r="E115" s="34"/>
+      <c r="F115" s="34"/>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B116" s="34"/>
+      <c r="C116" s="47"/>
+      <c r="E116" s="34"/>
+      <c r="F116" s="34"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B117" s="34"/>
+      <c r="C117" s="47"/>
+      <c r="E117" s="34"/>
+      <c r="F117" s="34"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B118" s="34"/>
+      <c r="C118" s="47"/>
+      <c r="E118" s="34"/>
+      <c r="F118" s="34"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B119" s="34"/>
+      <c r="C119" s="47"/>
+      <c r="E119" s="34"/>
+      <c r="F119" s="34"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B120" s="34"/>
+      <c r="C120" s="47"/>
+      <c r="E120" s="34"/>
+      <c r="F120" s="34"/>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B121" s="34"/>
+      <c r="C121" s="47"/>
+      <c r="E121" s="34"/>
+      <c r="F121" s="34"/>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B122" s="34"/>
+      <c r="C122" s="47"/>
+      <c r="E122" s="34"/>
+      <c r="F122" s="34"/>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B123" s="34"/>
+      <c r="C123" s="47"/>
+      <c r="E123" s="34"/>
+      <c r="F123" s="34"/>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B124" s="34"/>
+      <c r="C124" s="47"/>
+      <c r="E124" s="34"/>
+      <c r="F124" s="34"/>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B125" s="34"/>
+      <c r="C125" s="47"/>
+      <c r="E125" s="34"/>
+      <c r="F125" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1687,19 +1996,19 @@
     <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="26">
+    <row r="1" spans="1:3" s="22" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="23">
         <v>44805</v>
       </c>
-      <c r="C1" s="27">
+      <c r="C1" s="24">
         <v>44835</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="21" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="22">
+    <row r="2" spans="1:3" s="18" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="19">
         <f>SUM(B4:B285)</f>
         <v>2899401.35</v>
       </c>
@@ -1709,7 +2018,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1">
         <v>1854075.44</v>
@@ -1717,42 +2026,42 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1">
         <v>133463.75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="23" t="s">
-        <v>55</v>
+      <c r="A7" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="B7" s="1">
         <v>1478.72</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="23" t="s">
-        <v>56</v>
+      <c r="A8" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="B8" s="1">
         <v>183.87</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="23" t="s">
-        <v>57</v>
+      <c r="A9" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="B9" s="1">
         <v>0.37</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="24"/>
+      <c r="A10" s="21"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1">
         <v>59544.5</v>
@@ -1760,7 +2069,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1">
         <v>614654.69999999995</v>
@@ -1768,7 +2077,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1">
         <v>235000</v>
@@ -1776,7 +2085,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1">
         <v>1000</v>
@@ -1880,12 +2189,12 @@
         <v>344.8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="29">
+    <row r="14" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="26">
         <f>SUM(B1:B10)</f>
         <v>3821.79</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="26">
         <f>SUM(C1:C10)</f>
         <v>11186.490000000002</v>
       </c>
@@ -1900,7 +2209,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1">
         <f>B15-B14</f>
@@ -1912,11 +2221,11 @@
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B18" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>69</v>
+      <c r="B18" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/bank/pout-2022-09-01.xlsx
+++ b/bank/pout-2022-09-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiding/Sites/weidroot/weidroot_2017-01-06/app/github/wdingsoft/whingding/bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{13E63A80-A942-1F45-A3A0-B4933FFD2500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D004853-A170-1A4E-953D-C442016FF543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="620" windowWidth="23540" windowHeight="12880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="620" windowWidth="23540" windowHeight="12880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wd-op-log" sheetId="6" r:id="rId1"/>
@@ -539,8 +539,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -584,6 +582,8 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -803,7 +803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED1393D-93E0-6547-BE37-37C21B49335F}">
   <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -840,118 +840,118 @@
       </c>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:6" s="38" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D3" s="39"/>
-    </row>
-    <row r="4" spans="1:6" s="30" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+    <row r="3" spans="1:6" s="36" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="37"/>
+    </row>
+    <row r="4" spans="1:6" s="28" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="29">
         <f>C2+SUM(C5:C15)+C16</f>
         <v>2900408.7199999997</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="30">
         <f>D2+SUM(D5:D14)+D16</f>
         <v>43884.74</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="34">
         <v>-343993.12</v>
       </c>
       <c r="D5" s="4">
         <v>49999</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="32">
         <v>-6.88</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="33"/>
-      <c r="C6" s="36"/>
+    <row r="6" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="31"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="37"/>
-    </row>
-    <row r="7" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="33"/>
-      <c r="C7" s="36"/>
+      <c r="E6" s="35"/>
+    </row>
+    <row r="7" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="31"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="37"/>
-    </row>
-    <row r="8" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="33"/>
-      <c r="C8" s="36"/>
+      <c r="E7" s="35"/>
+    </row>
+    <row r="8" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="31"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="37"/>
-    </row>
-    <row r="9" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="33"/>
-      <c r="C9" s="36"/>
+      <c r="E8" s="35"/>
+    </row>
+    <row r="9" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="31"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="37"/>
-    </row>
-    <row r="10" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="33"/>
-      <c r="C10" s="36"/>
+      <c r="E9" s="35"/>
+    </row>
+    <row r="10" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="31"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="37"/>
-    </row>
-    <row r="11" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="33"/>
-      <c r="C11" s="36"/>
+      <c r="E10" s="35"/>
+    </row>
+    <row r="11" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="31"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="37"/>
-    </row>
-    <row r="12" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="33"/>
-      <c r="C12" s="36"/>
+      <c r="E11" s="35"/>
+    </row>
+    <row r="12" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="31"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="37"/>
-    </row>
-    <row r="13" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="33"/>
-      <c r="C13" s="36"/>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="31"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="37"/>
-    </row>
-    <row r="14" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="33" t="s">
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="34">
         <v>0</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="32">
         <v>-6.98</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="38" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="42"/>
+    <row r="15" spans="1:6" s="36" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="40"/>
     </row>
     <row r="16" spans="1:6" s="16" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
@@ -967,1015 +967,1015 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="34"/>
-      <c r="C17" s="36"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="34"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="36"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="4">
         <v>-249</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="34"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="36"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="4">
         <v>-435</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="34"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="34"/>
-      <c r="C20" s="36"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="4">
         <v>-700</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="34"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="34"/>
-      <c r="C21" s="36"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="4">
         <v>-3000</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="34"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B22" s="34"/>
-      <c r="C22" s="36"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="4">
         <v>-1000</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="34"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B23" s="34"/>
-      <c r="C23" s="36">
+      <c r="B23" s="32"/>
+      <c r="C23" s="34">
         <v>-3000</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="34"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="34">
         <v>-858.24</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="34"/>
+      <c r="F24" s="32"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="34">
         <v>-98</v>
       </c>
-      <c r="E25" s="43" t="s">
+      <c r="E25" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="41" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="34">
         <v>-100</v>
       </c>
-      <c r="E26" s="43" t="s">
+      <c r="E26" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="43"/>
+      <c r="F26" s="41"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="34">
         <v>-58</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="34">
         <v>-1200</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="34">
         <v>-140</v>
       </c>
-      <c r="E29" s="34" t="s">
+      <c r="E29" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="34">
         <v>0</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="34">
         <v>-296</v>
       </c>
-      <c r="E31" s="43" t="s">
+      <c r="E31" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="34">
         <v>-380</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="43" t="s">
+      <c r="F32" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="34">
         <v>-872</v>
       </c>
-      <c r="E33" s="43" t="s">
+      <c r="E33" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="43" t="s">
+      <c r="F33" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="34">
         <v>-1536</v>
       </c>
-      <c r="E34" s="43" t="s">
+      <c r="E34" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="43" t="s">
+      <c r="F34" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="34">
         <v>-380</v>
       </c>
-      <c r="E35" s="43" t="s">
+      <c r="E35" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="43" t="s">
+      <c r="F35" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="36">
+      <c r="C36" s="34">
         <v>-40</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="43" t="s">
+      <c r="F36" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="36">
+      <c r="C37" s="34">
         <v>-190</v>
       </c>
-      <c r="E37" s="43" t="s">
+      <c r="E37" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="43" t="s">
+      <c r="F37" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="36">
+      <c r="C38" s="34">
         <v>-100</v>
       </c>
-      <c r="E38" s="43" t="s">
+      <c r="E38" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F38" s="43"/>
+      <c r="F38" s="41"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="E39" s="34" t="s">
+      <c r="C39" s="34"/>
+      <c r="E39" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="41" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="E40" s="34" t="s">
+      <c r="C40" s="34"/>
+      <c r="E40" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="43" t="s">
+      <c r="F40" s="41" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="34">
         <v>-968</v>
       </c>
-      <c r="E41" s="43" t="s">
+      <c r="E41" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="43"/>
+      <c r="F41" s="41"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="36">
+      <c r="C42" s="34">
         <v>-344</v>
       </c>
-      <c r="E42" s="43" t="s">
+      <c r="E42" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="43"/>
+      <c r="F42" s="41"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="36">
+      <c r="C43" s="34">
         <v>-772</v>
       </c>
-      <c r="E43" s="43" t="s">
+      <c r="E43" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="43"/>
+      <c r="F43" s="41"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="36">
+      <c r="C44" s="34">
         <v>-2746</v>
       </c>
-      <c r="E44" s="43" t="s">
+      <c r="E44" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="43"/>
+      <c r="F44" s="41"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="36">
+      <c r="C45" s="34">
         <v>-223.5</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="E45" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="43" t="s">
+      <c r="F45" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B46" s="45"/>
-      <c r="C46" s="36"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="34"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="34"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="32"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="35">
+      <c r="C47" s="33">
         <v>-1010</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="E47" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="34"/>
+      <c r="F47" s="32"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B48" s="45" t="s">
+      <c r="B48" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="35">
+      <c r="C48" s="33">
         <v>-683</v>
       </c>
-      <c r="E48" s="43" t="s">
+      <c r="E48" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="F48" s="34"/>
+      <c r="F48" s="32"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="35">
+      <c r="C49" s="33">
         <v>-544.70000000000005</v>
       </c>
-      <c r="E49" s="34" t="s">
+      <c r="E49" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="34"/>
+      <c r="F49" s="32"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="35">
+      <c r="C50" s="33">
         <v>-459.99</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F50" s="34"/>
+      <c r="F50" s="32"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="35">
+      <c r="C51" s="33">
         <v>-416</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="E51" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="F51" s="34"/>
+      <c r="F51" s="32"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B52" s="45" t="s">
+      <c r="B52" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="35">
+      <c r="C52" s="33">
         <v>-268</v>
       </c>
-      <c r="E52" s="34" t="s">
+      <c r="E52" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="F52" s="34"/>
+      <c r="F52" s="32"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="35">
+      <c r="C53" s="33">
         <v>-259.3</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F53" s="34"/>
+      <c r="F53" s="32"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B54" s="45" t="s">
+      <c r="B54" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="35">
+      <c r="C54" s="33">
         <v>-120</v>
       </c>
-      <c r="E54" s="43" t="s">
+      <c r="E54" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="F54" s="34"/>
+      <c r="F54" s="32"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="35">
+      <c r="C55" s="33">
         <v>-34</v>
       </c>
-      <c r="E55" s="34" t="s">
+      <c r="E55" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="F55" s="34"/>
+      <c r="F55" s="32"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B56" s="45" t="s">
+      <c r="B56" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="35">
+      <c r="C56" s="33">
         <v>-26.8</v>
       </c>
-      <c r="E56" s="43" t="s">
+      <c r="E56" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="F56" s="34"/>
+      <c r="F56" s="32"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B57" s="34"/>
-      <c r="C57" s="36">
+      <c r="B57" s="32"/>
+      <c r="C57" s="34">
         <v>-38.9</v>
       </c>
-      <c r="E57" s="46" t="s">
+      <c r="E57" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F57" s="34"/>
+      <c r="F57" s="32"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B58" s="34"/>
-      <c r="C58" s="36"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="34"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="34"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="32"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="35">
+      <c r="C59" s="33">
         <v>-3591.7</v>
       </c>
-      <c r="E59" s="43" t="s">
+      <c r="E59" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="F59" s="34"/>
+      <c r="F59" s="32"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B60" s="45" t="s">
+      <c r="B60" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="35">
+      <c r="C60" s="33">
         <v>-2009.34</v>
       </c>
-      <c r="E60" s="28" t="s">
+      <c r="E60" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F60" s="34"/>
+      <c r="F60" s="32"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B61" s="45" t="s">
+      <c r="B61" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="35">
+      <c r="C61" s="33">
         <v>-1601</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F61" s="34"/>
+      <c r="F61" s="32"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B62" s="45" t="s">
+      <c r="B62" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="35">
+      <c r="C62" s="33">
         <v>-950</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F62" s="34"/>
+      <c r="F62" s="32"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B63" s="45" t="s">
+      <c r="B63" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="35">
+      <c r="C63" s="33">
         <v>-898</v>
       </c>
-      <c r="E63" s="28" t="s">
+      <c r="E63" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="F63" s="34"/>
+      <c r="F63" s="32"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B64" s="45" t="s">
+      <c r="B64" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C64" s="35">
+      <c r="C64" s="33">
         <v>-546.95000000000005</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F64" s="34"/>
+      <c r="F64" s="32"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B65" s="45" t="s">
+      <c r="B65" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="35">
+      <c r="C65" s="33">
         <v>-474.7</v>
       </c>
-      <c r="E65" s="28" t="s">
+      <c r="E65" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="F65" s="34"/>
+      <c r="F65" s="32"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B66" s="45" t="s">
+      <c r="B66" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="35">
+      <c r="C66" s="33">
         <v>-420</v>
       </c>
-      <c r="E66" s="28" t="s">
+      <c r="E66" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="F66" s="34"/>
+      <c r="F66" s="32"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B67" s="45" t="s">
+      <c r="B67" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="35">
+      <c r="C67" s="33">
         <v>-350</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F67" s="34"/>
+      <c r="F67" s="32"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B68" s="45" t="s">
+      <c r="B68" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="35">
+      <c r="C68" s="33">
         <v>-344.8</v>
       </c>
-      <c r="E68" s="28" t="s">
+      <c r="E68" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F68" s="34"/>
+      <c r="F68" s="32"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B69" s="45" t="s">
+      <c r="B69" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="36">
+      <c r="C69" s="34">
         <v>-1015.6</v>
       </c>
-      <c r="E69" s="28" t="s">
+      <c r="E69" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F69" s="34"/>
+      <c r="F69" s="32"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B70" s="34"/>
-      <c r="C70" s="36"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="34"/>
       <c r="D70" s="5"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="34"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="32"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C71" s="36"/>
+      <c r="C71" s="34"/>
       <c r="D71" s="4">
         <v>-5000</v>
       </c>
-      <c r="E71" s="34" t="s">
+      <c r="E71" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F71" s="34"/>
+      <c r="F71" s="32"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B72" s="34" t="s">
+      <c r="B72" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C72" s="47"/>
+      <c r="C72" s="45"/>
       <c r="D72" s="4">
         <v>-2500</v>
       </c>
-      <c r="E72" s="43" t="s">
+      <c r="E72" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="F72" s="34"/>
+      <c r="F72" s="32"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B73" s="43" t="s">
+      <c r="B73" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C73" s="36"/>
-      <c r="E73" s="43" t="s">
+      <c r="C73" s="34"/>
+      <c r="E73" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="F73" s="34"/>
+      <c r="F73" s="32"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B74" s="43" t="s">
+      <c r="B74" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C74" s="36"/>
-      <c r="E74" s="43" t="s">
+      <c r="C74" s="34"/>
+      <c r="E74" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="F74" s="34"/>
+      <c r="F74" s="32"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B75" s="43"/>
-      <c r="C75" s="36"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="34"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="34"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="32"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B76" s="43" t="s">
+      <c r="B76" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C76" s="36">
+      <c r="C76" s="34">
         <v>-410.89</v>
       </c>
       <c r="D76" s="4">
         <v>-13</v>
       </c>
-      <c r="E76" s="43" t="s">
+      <c r="E76" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F76" s="34"/>
+      <c r="F76" s="32"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B77" s="34"/>
-      <c r="C77" s="47"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="45"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B78" s="34"/>
-      <c r="C78" s="47"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="45"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B79" s="34"/>
-      <c r="C79" s="47"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="45"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B80" s="34"/>
-      <c r="C80" s="47"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="45"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B81" s="34"/>
-      <c r="C81" s="47"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="45"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B82" s="34"/>
-      <c r="C82" s="47"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="34"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="45"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B83" s="34"/>
-      <c r="C83" s="47"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="34"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="45"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B84" s="34"/>
-      <c r="C84" s="47"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="34"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="45"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B85" s="34"/>
-      <c r="C85" s="47"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="45"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B86" s="34"/>
-      <c r="C86" s="47"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="45"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B87" s="34"/>
-      <c r="C87" s="47"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="45"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B88" s="34"/>
-      <c r="C88" s="47"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="45"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B89" s="34"/>
-      <c r="C89" s="47"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="45"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="32"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B90" s="34"/>
-      <c r="C90" s="47"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="45"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B91" s="34"/>
-      <c r="C91" s="47"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="34"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="45"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B92" s="34"/>
-      <c r="C92" s="47"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="34"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="45"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B93" s="34"/>
-      <c r="C93" s="47"/>
-      <c r="E93" s="34"/>
-      <c r="F93" s="34"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="45"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B94" s="34"/>
-      <c r="C94" s="47"/>
-      <c r="E94" s="34"/>
-      <c r="F94" s="34"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="45"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B95" s="34"/>
-      <c r="C95" s="47"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="34"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="45"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B96" s="34"/>
-      <c r="C96" s="47"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="45"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B97" s="34"/>
-      <c r="C97" s="47"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="34"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="45"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B98" s="34"/>
-      <c r="C98" s="47"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="45"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B99" s="34"/>
-      <c r="C99" s="47"/>
-      <c r="E99" s="34"/>
-      <c r="F99" s="34"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="45"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B100" s="34"/>
-      <c r="C100" s="47"/>
-      <c r="E100" s="34"/>
-      <c r="F100" s="34"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="45"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B101" s="34"/>
-      <c r="C101" s="47"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="34"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="45"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="32"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B102" s="34"/>
-      <c r="C102" s="47"/>
-      <c r="E102" s="34"/>
-      <c r="F102" s="34"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="45"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B103" s="34"/>
-      <c r="C103" s="47"/>
-      <c r="E103" s="34"/>
-      <c r="F103" s="34"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="45"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B104" s="34"/>
-      <c r="C104" s="47"/>
-      <c r="E104" s="34"/>
-      <c r="F104" s="34"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="45"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B105" s="34"/>
-      <c r="C105" s="47"/>
-      <c r="E105" s="34"/>
-      <c r="F105" s="34"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="45"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="32"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B106" s="34"/>
-      <c r="C106" s="47"/>
-      <c r="E106" s="34"/>
-      <c r="F106" s="34"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="45"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="32"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B107" s="34"/>
-      <c r="C107" s="47"/>
-      <c r="E107" s="34"/>
-      <c r="F107" s="34"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="45"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B108" s="34"/>
-      <c r="C108" s="47"/>
-      <c r="E108" s="34"/>
-      <c r="F108" s="34"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="45"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="32"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B109" s="34"/>
-      <c r="C109" s="47"/>
-      <c r="E109" s="34"/>
-      <c r="F109" s="34"/>
+      <c r="B109" s="32"/>
+      <c r="C109" s="45"/>
+      <c r="E109" s="32"/>
+      <c r="F109" s="32"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B110" s="34"/>
-      <c r="C110" s="47"/>
-      <c r="E110" s="34"/>
-      <c r="F110" s="34"/>
+      <c r="B110" s="32"/>
+      <c r="C110" s="45"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="32"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B111" s="34"/>
-      <c r="C111" s="47"/>
-      <c r="E111" s="34"/>
-      <c r="F111" s="34"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="45"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="32"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B112" s="34"/>
-      <c r="C112" s="47"/>
-      <c r="E112" s="34"/>
-      <c r="F112" s="34"/>
+      <c r="B112" s="32"/>
+      <c r="C112" s="45"/>
+      <c r="E112" s="32"/>
+      <c r="F112" s="32"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B113" s="34"/>
-      <c r="C113" s="47"/>
-      <c r="E113" s="34"/>
-      <c r="F113" s="34"/>
+      <c r="B113" s="32"/>
+      <c r="C113" s="45"/>
+      <c r="E113" s="32"/>
+      <c r="F113" s="32"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B114" s="34"/>
-      <c r="C114" s="47"/>
-      <c r="E114" s="34"/>
-      <c r="F114" s="34"/>
+      <c r="B114" s="32"/>
+      <c r="C114" s="45"/>
+      <c r="E114" s="32"/>
+      <c r="F114" s="32"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B115" s="34"/>
-      <c r="C115" s="47"/>
-      <c r="E115" s="34"/>
-      <c r="F115" s="34"/>
+      <c r="B115" s="32"/>
+      <c r="C115" s="45"/>
+      <c r="E115" s="32"/>
+      <c r="F115" s="32"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B116" s="34"/>
-      <c r="C116" s="47"/>
-      <c r="E116" s="34"/>
-      <c r="F116" s="34"/>
+      <c r="B116" s="32"/>
+      <c r="C116" s="45"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="32"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B117" s="34"/>
-      <c r="C117" s="47"/>
-      <c r="E117" s="34"/>
-      <c r="F117" s="34"/>
+      <c r="B117" s="32"/>
+      <c r="C117" s="45"/>
+      <c r="E117" s="32"/>
+      <c r="F117" s="32"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B118" s="34"/>
-      <c r="C118" s="47"/>
-      <c r="E118" s="34"/>
-      <c r="F118" s="34"/>
+      <c r="B118" s="32"/>
+      <c r="C118" s="45"/>
+      <c r="E118" s="32"/>
+      <c r="F118" s="32"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B119" s="34"/>
-      <c r="C119" s="47"/>
-      <c r="E119" s="34"/>
-      <c r="F119" s="34"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="45"/>
+      <c r="E119" s="32"/>
+      <c r="F119" s="32"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B120" s="34"/>
-      <c r="C120" s="47"/>
-      <c r="E120" s="34"/>
-      <c r="F120" s="34"/>
+      <c r="B120" s="32"/>
+      <c r="C120" s="45"/>
+      <c r="E120" s="32"/>
+      <c r="F120" s="32"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B121" s="34"/>
-      <c r="C121" s="47"/>
-      <c r="E121" s="34"/>
-      <c r="F121" s="34"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="45"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="32"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B122" s="34"/>
-      <c r="C122" s="47"/>
-      <c r="E122" s="34"/>
-      <c r="F122" s="34"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="45"/>
+      <c r="E122" s="32"/>
+      <c r="F122" s="32"/>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B123" s="34"/>
-      <c r="C123" s="47"/>
-      <c r="E123" s="34"/>
-      <c r="F123" s="34"/>
+      <c r="B123" s="32"/>
+      <c r="C123" s="45"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="32"/>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B124" s="34"/>
-      <c r="C124" s="47"/>
-      <c r="E124" s="34"/>
-      <c r="F124" s="34"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="45"/>
+      <c r="E124" s="32"/>
+      <c r="F124" s="32"/>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B125" s="34"/>
-      <c r="C125" s="47"/>
-      <c r="E125" s="34"/>
-      <c r="F125" s="34"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="45"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1984,10 +1984,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBE6AC8-509B-A643-BB19-E41D6E7661ED}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1996,11 +1996,11 @@
     <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="22" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="23">
+    <row r="1" spans="1:3" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="21">
         <v>44805</v>
       </c>
-      <c r="C1" s="24">
+      <c r="C1" s="22">
         <v>44835</v>
       </c>
     </row>
@@ -2009,85 +2009,87 @@
         <v>53</v>
       </c>
       <c r="B2" s="19">
-        <f>SUM(B4:B285)</f>
+        <f>SUM(B3:B284)</f>
         <v>2899401.35</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="41"/>
+      <c r="B3" s="33"/>
+    </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
+      <c r="A4" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="33">
+        <v>1854075.44</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1854075.44</v>
+      <c r="A5" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="33">
+        <v>133463.75</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="1">
-        <v>133463.75</v>
+      <c r="A6" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="33">
+        <v>1478.72</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1478.72</v>
+      <c r="A7" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="33">
+        <v>183.87</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="1">
-        <v>183.87</v>
+      <c r="A8" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="33">
+        <v>0.37</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.37</v>
-      </c>
+      <c r="A9" s="48"/>
+      <c r="B9" s="33"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
+      <c r="A10" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="33">
+        <v>59544.5</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="1">
-        <v>59544.5</v>
+      <c r="A11" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="33">
+        <v>614654.69999999995</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="1">
-        <v>614654.69999999995</v>
+      <c r="A12" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="33">
+        <v>235000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="1">
-        <v>235000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="A13" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B13" s="33">
         <v>1000</v>
       </c>
     </row>
@@ -2189,12 +2191,12 @@
         <v>344.8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="26">
+    <row r="14" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="24">
         <f>SUM(B1:B10)</f>
         <v>3821.79</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="24">
         <f>SUM(C1:C10)</f>
         <v>11186.490000000002</v>
       </c>
@@ -2221,10 +2223,10 @@
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="25" t="s">
         <v>68</v>
       </c>
     </row>
